--- a/HammingComparison.xlsx
+++ b/HammingComparison.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\source\repos\Hamming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Windows7\Desktop\Hamming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6559FB-F194-4B66-8F0B-54DE25477236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392646B5-DCF7-4735-A443-4AFBB37F3115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-432" yWindow="612" windowWidth="15300" windowHeight="11316" xr2:uid="{20A2C29F-EE98-43EA-9320-ACA12740AE55}"/>
+    <workbookView xWindow="-435" yWindow="615" windowWidth="15300" windowHeight="11310" xr2:uid="{20A2C29F-EE98-43EA-9320-ACA12740AE55}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>Number of sequences</t>
   </si>
@@ -54,7 +45,7 @@
     <t>Time in ms (for 3-bit sequences)</t>
   </si>
   <si>
-    <t>Time in ms (for 100-bit sequences)</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -62,8 +53,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,13 +93,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -126,6 +120,2532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pairs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12078360927317545"/>
+          <c:y val="3.6262825592078371E-2"/>
+          <c:w val="0.80746060091779914"/>
+          <c:h val="0.81519220392562142"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1616999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.302800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.698799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.003799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>482.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1215.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2690.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4589.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5771.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16691.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24093.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7922-41D1-8796-6926484C49AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>0.180224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.0792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.6928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.915300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>351.53800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>642.42399999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1028.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1279.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2792.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4855.9799999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7922-41D1-8796-6926484C49AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="318082032"/>
+        <c:axId val="318084328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="318082032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Number of sequences</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318084328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="318084328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="318082032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> iteratively</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13436290496010261"/>
+          <c:y val="4.8356908755226372E-2"/>
+          <c:w val="0.76864384676590558"/>
+          <c:h val="0.7930905421590374"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.44540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7291999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.948499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.357999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.917099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>661.63599999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1211.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1810.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2655.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3012.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5301.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192.5300000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD85-4A7C-9D37-A77DCE034A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7395199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.007400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.960500000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.382199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>370.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>983.44100000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1784.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3153.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3791.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8302.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15152.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD85-4A7C-9D37-A77DCE034A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="212071344"/>
+        <c:axId val="212072000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="212071344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of sequences</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40489192649288386"/>
+              <c:y val="0.9313599591834969"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212072000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212072000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212071344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F2F36-5361-4CFE-AB50-023B052C70DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>481854</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F73304C-A935-4044-8535-18ED5E5C0DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,36 +2945,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B368270-682B-41AE-8091-A4A7390D0169}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -463,16 +2981,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -488,20 +3002,8 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -518,7 +3020,7 @@
         <v>0.44540000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -535,7 +3037,7 @@
         <v>3.9260000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
@@ -552,7 +3054,7 @@
         <v>7.7291999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -569,7 +3071,7 @@
         <v>19.948499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
@@ -586,7 +3088,7 @@
         <v>38.357999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -603,7 +3105,7 @@
         <v>63.917099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -620,7 +3122,7 @@
         <v>105.619</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1500</v>
       </c>
@@ -637,7 +3139,7 @@
         <v>228.93899999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3000</v>
       </c>
@@ -654,7 +3156,7 @@
         <v>661.63599999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -671,7 +3173,7 @@
         <v>1211.72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7000</v>
       </c>
@@ -688,7 +3190,7 @@
         <v>1810.44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9000</v>
       </c>
@@ -705,7 +3207,7 @@
         <v>2655.46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10000</v>
       </c>
@@ -722,7 +3224,7 @@
         <v>3012.14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15000</v>
       </c>
@@ -739,7 +3241,7 @@
         <v>5301.98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20000</v>
       </c>
@@ -756,31 +3258,72 @@
         <v>8192.5300000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30000</v>
       </c>
-      <c r="B19">
-        <v>53707.8</v>
-      </c>
-      <c r="C19">
-        <v>10740.5</v>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40000</v>
       </c>
-      <c r="B20">
-        <v>83990.9</v>
-      </c>
-      <c r="C20">
-        <v>19012.599999999999</v>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>60000</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>90000</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -793,5 +3336,6 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>